--- a/税收计算器.xlsx
+++ b/税收计算器.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/young/Library/Mobile Documents/com~apple~CloudDocs/MySharedDocs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/young/Documents/github/tax-calculator-cn/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFC80F6F-E5AA-8944-BC32-4435C13B32D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{743E7B5C-C751-7440-8C28-0DAF22564D5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-11660" yWindow="-28300" windowWidth="51200" windowHeight="28300" xr2:uid="{579481C0-C165-FD4E-8674-78238D2D42C7}"/>
+    <workbookView xWindow="1160" yWindow="760" windowWidth="29080" windowHeight="18880" xr2:uid="{579481C0-C165-FD4E-8674-78238D2D42C7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -813,7 +813,7 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1"/>
@@ -859,39 +859,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="6" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="6" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="6" applyBorder="1"/>
-    <xf numFmtId="10" fontId="13" fillId="4" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="13" fillId="4" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="10" fontId="13" fillId="4" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -912,18 +879,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="3" borderId="18" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="22" xfId="8" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="23" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="24" xfId="8" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="25" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="19" xfId="8" applyBorder="1" applyAlignment="1">
@@ -953,18 +908,51 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="3" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="3" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="5" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="18" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="17" xfId="7" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="7" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="18" xfId="7" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="21" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="22" xfId="8" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="24" xfId="8" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="13" fillId="4" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="13" fillId="4" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="23" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="25" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -974,7 +962,18 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="20" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="21" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="20% - Accent1" xfId="7" builtinId="30"/>
@@ -1299,8 +1298,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9656CC3-1EBD-404E-A944-B41B912C7754}">
   <dimension ref="A1:L44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="192" workbookViewId="0">
-      <selection activeCell="G43" sqref="G43"/>
+    <sheetView tabSelected="1" topLeftCell="A38" zoomScale="140" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1331,7 +1330,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="26">
-        <v>18000</v>
+        <v>25000</v>
       </c>
       <c r="C2" s="26" t="s">
         <v>9</v>
@@ -1342,19 +1341,19 @@
       <c r="E2" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="45" t="s">
+      <c r="H2" s="82" t="s">
         <v>66</v>
       </c>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46"/>
-      <c r="K2" s="47"/>
+      <c r="I2" s="83"/>
+      <c r="J2" s="83"/>
+      <c r="K2" s="84"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="25" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="26">
-        <v>30000</v>
+        <v>75000</v>
       </c>
       <c r="C3" s="26" t="s">
         <v>4</v>
@@ -1442,7 +1441,7 @@
       </c>
       <c r="B6" s="26">
         <f>B2</f>
-        <v>18000</v>
+        <v>25000</v>
       </c>
       <c r="C6" s="26" t="s">
         <v>7</v>
@@ -1472,7 +1471,7 @@
       </c>
       <c r="B7" s="26">
         <f>B2</f>
-        <v>18000</v>
+        <v>25000</v>
       </c>
       <c r="C7" s="26" t="s">
         <v>8</v>
@@ -1502,7 +1501,7 @@
       </c>
       <c r="B8" s="26">
         <f>B2</f>
-        <v>18000</v>
+        <v>25000</v>
       </c>
       <c r="C8" s="26" t="s">
         <v>82</v>
@@ -1532,7 +1531,7 @@
       </c>
       <c r="B9" s="26">
         <f>B2</f>
-        <v>18000</v>
+        <v>25000</v>
       </c>
       <c r="C9" s="26"/>
       <c r="D9" s="26"/>
@@ -1630,12 +1629,12 @@
       <c r="E14" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="H14" s="48" t="s">
+      <c r="H14" s="90" t="s">
         <v>65</v>
       </c>
-      <c r="I14" s="49"/>
-      <c r="J14" s="49"/>
-      <c r="K14" s="50"/>
+      <c r="I14" s="91"/>
+      <c r="J14" s="91"/>
+      <c r="K14" s="92"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="17" t="s">
@@ -1643,18 +1642,18 @@
       </c>
       <c r="B15" s="3">
         <f>D15*12</f>
-        <v>17280</v>
+        <v>24000</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>4</v>
       </c>
       <c r="D15" s="3">
         <f>$B$6*D3</f>
-        <v>1440</v>
+        <v>2000</v>
       </c>
       <c r="E15" s="18">
         <f>$B$8*E3</f>
-        <v>2700</v>
+        <v>3750</v>
       </c>
       <c r="H15" s="35" t="s">
         <v>33</v>
@@ -1675,18 +1674,18 @@
       </c>
       <c r="B16" s="3">
         <f t="shared" ref="B16:B18" si="0">D16*12</f>
-        <v>4320</v>
+        <v>6000</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D16" s="3">
         <f>$B$6*D4</f>
-        <v>360</v>
+        <v>500</v>
       </c>
       <c r="E16" s="18">
         <f t="shared" ref="E16:E19" si="1">$B$8*E4</f>
-        <v>1080</v>
+        <v>1500</v>
       </c>
       <c r="H16" s="35">
         <v>1</v>
@@ -1707,18 +1706,18 @@
       </c>
       <c r="B17" s="3">
         <f t="shared" si="0"/>
-        <v>1080</v>
+        <v>1500</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D17" s="3">
         <f>$B$6*D5</f>
-        <v>90</v>
+        <v>125</v>
       </c>
       <c r="E17" s="18">
         <f t="shared" si="1"/>
-        <v>126</v>
+        <v>175</v>
       </c>
       <c r="H17" s="35">
         <v>2</v>
@@ -1750,7 +1749,7 @@
       </c>
       <c r="E18" s="18">
         <f t="shared" si="1"/>
-        <v>12.6</v>
+        <v>17.5</v>
       </c>
       <c r="H18" s="35">
         <v>3</v>
@@ -1782,7 +1781,7 @@
       </c>
       <c r="E19" s="18">
         <f t="shared" si="1"/>
-        <v>81</v>
+        <v>112.49999999999999</v>
       </c>
       <c r="H19" s="35">
         <v>4</v>
@@ -1803,18 +1802,18 @@
       </c>
       <c r="B20" s="3">
         <f>(D20+E20)*12</f>
-        <v>51840</v>
+        <v>72000</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>3</v>
       </c>
       <c r="D20" s="3">
         <f>B8*D8</f>
-        <v>2160</v>
+        <v>3000</v>
       </c>
       <c r="E20" s="18">
         <f>B9*E8</f>
-        <v>2160</v>
+        <v>3000</v>
       </c>
       <c r="H20" s="35">
         <v>5</v>
@@ -1837,11 +1836,11 @@
       </c>
       <c r="D21" s="3">
         <f>SUM(D15:D20)</f>
-        <v>4050</v>
+        <v>5625</v>
       </c>
       <c r="E21" s="18">
         <f>SUM(E15:E20)</f>
-        <v>6159.6</v>
+        <v>8555</v>
       </c>
       <c r="H21" s="35">
         <v>6</v>
@@ -1882,7 +1881,7 @@
       </c>
       <c r="B23" s="2">
         <f>B2*12+B3+B4</f>
-        <v>246000</v>
+        <v>375000</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -1891,387 +1890,387 @@
       </c>
       <c r="B24" s="2">
         <f>B23+B4*0.8</f>
-        <v>246000</v>
+        <v>375000</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A25" s="78" t="s">
+      <c r="A25" s="63" t="s">
         <v>41</v>
       </c>
-      <c r="B25" s="79">
+      <c r="B25" s="64">
         <f>(SUM(D15:D20)*12)</f>
-        <v>48600</v>
-      </c>
-      <c r="C25" s="79" t="s">
+        <v>67500</v>
+      </c>
+      <c r="C25" s="64" t="s">
         <v>44</v>
       </c>
-      <c r="D25" s="79">
+      <c r="D25" s="64">
         <f>B11*12</f>
         <v>18000</v>
       </c>
-      <c r="E25" s="79" t="s">
+      <c r="E25" s="64" t="s">
         <v>50</v>
       </c>
-      <c r="F25" s="80">
+      <c r="F25" s="65">
         <f>B10+D25+B25</f>
-        <v>126600</v>
+        <v>145500</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A26" s="81" t="s">
+      <c r="A26" s="66" t="s">
         <v>34</v>
       </c>
-      <c r="B26" s="82">
+      <c r="B26" s="67">
         <f>MAX(0,B24-F25)</f>
-        <v>119400</v>
-      </c>
-      <c r="C26" s="83"/>
-      <c r="D26" s="83"/>
-      <c r="E26" s="83"/>
+        <v>229500</v>
+      </c>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
       <c r="F26" s="18"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A27" s="84" t="s">
+      <c r="A27" s="85" t="s">
         <v>47</v>
       </c>
-      <c r="B27" s="85">
+      <c r="B27" s="86">
         <f>IF(B5=1,B3,0)</f>
-        <v>30000</v>
-      </c>
-      <c r="C27" s="83" t="s">
+        <v>75000</v>
+      </c>
+      <c r="C27" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="D27" s="83">
+      <c r="D27" s="3">
         <f>IF(B5=1,B3,0)/12</f>
-        <v>2500</v>
-      </c>
-      <c r="E27" s="83" t="s">
+        <v>6250</v>
+      </c>
+      <c r="E27" s="3" t="s">
         <v>42</v>
       </c>
       <c r="F27" s="18" cm="1">
         <f t="array" ref="F27">_xlfn.SWITCH(TRUE(), D27&lt;3000,1, D27&lt;12000,2,D27&lt;25000,3,D27&lt;35000,4,D27&lt;55000,5,D27&lt;80000,6, 7)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A28" s="84"/>
-      <c r="B28" s="85"/>
-      <c r="C28" s="83" t="s">
+      <c r="A28" s="85"/>
+      <c r="B28" s="86"/>
+      <c r="C28" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D28" s="83" cm="1">
+      <c r="D28" s="3" cm="1">
         <f t="array" ref="D28">_xlfn.SWITCH(TRUE(), D27&lt;3000,0, D27&lt;12000,210,D27&lt;25000,1410,D27&lt;35000,2660,D27&lt;55000,4410,D27&lt;80000,7160, 15160)</f>
-        <v>0</v>
-      </c>
-      <c r="E28" s="83" t="s">
+        <v>210</v>
+      </c>
+      <c r="E28" s="3" t="s">
         <v>43</v>
       </c>
       <c r="F28" s="18" cm="1">
         <f t="array" ref="F28">_xlfn.SWITCH(TRUE(), D27&lt;3000,3, D27&lt;12000,10,D27&lt;25000,20,D27&lt;35000,25,D27&lt;55000,30,D27&lt;85000,35, 45)/100</f>
-        <v>0.03</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A29" s="84"/>
-      <c r="B29" s="85"/>
-      <c r="C29" s="86" t="s">
+      <c r="A29" s="85"/>
+      <c r="B29" s="86"/>
+      <c r="C29" s="68" t="s">
         <v>45</v>
       </c>
-      <c r="D29" s="86">
+      <c r="D29" s="68">
         <f>B27*F28-D28</f>
-        <v>900</v>
-      </c>
-      <c r="E29" s="86"/>
-      <c r="F29" s="87"/>
+        <v>7290</v>
+      </c>
+      <c r="E29" s="68"/>
+      <c r="F29" s="69"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A30" s="88"/>
-      <c r="B30" s="89"/>
-      <c r="C30" s="89"/>
-      <c r="D30" s="89"/>
-      <c r="E30" s="89"/>
-      <c r="F30" s="90"/>
+      <c r="A30" s="70"/>
+      <c r="B30" s="71"/>
+      <c r="C30" s="71"/>
+      <c r="D30" s="71"/>
+      <c r="E30" s="71"/>
+      <c r="F30" s="72"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A31" s="91" t="s">
+      <c r="A31" s="87" t="s">
         <v>46</v>
       </c>
-      <c r="B31" s="85">
+      <c r="B31" s="86">
         <f>B26-B27</f>
-        <v>89400</v>
-      </c>
-      <c r="C31" s="83" t="s">
+        <v>154500</v>
+      </c>
+      <c r="C31" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D31" s="83">
+      <c r="D31" s="3">
         <f>B31</f>
-        <v>89400</v>
-      </c>
-      <c r="E31" s="83" t="s">
+        <v>154500</v>
+      </c>
+      <c r="E31" s="3" t="s">
         <v>42</v>
       </c>
       <c r="F31" s="18" cm="1">
         <f t="array" ref="F31">_xlfn.SWITCH(TRUE(), B31&lt;36000,1, B31&lt;144000,2,B31&lt;300000,3,B31&lt;420000,4,B31&lt;660000,5,B31&lt;960000,6, 7)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A32" s="91"/>
-      <c r="B32" s="85"/>
-      <c r="C32" s="83" t="s">
+      <c r="A32" s="87"/>
+      <c r="B32" s="86"/>
+      <c r="C32" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D32" s="83" cm="1">
+      <c r="D32" s="3" cm="1">
         <f t="array" ref="D32">_xlfn.SWITCH(TRUE(), B31&lt;36000,0, B31&lt;144000,2520,B31&lt;300000,16920,B31&lt;420000,31920,B31&lt;660000,52920,B31&lt;960000,85920, 181920)</f>
-        <v>2520</v>
-      </c>
-      <c r="E32" s="83" t="s">
+        <v>16920</v>
+      </c>
+      <c r="E32" s="3" t="s">
         <v>43</v>
       </c>
       <c r="F32" s="18" cm="1">
         <f t="array" ref="F32">_xlfn.SWITCH(TRUE(), B31&lt;36000,3, B31&lt;144000,10,B31&lt;300000,20,B31&lt;420000,25,B31&lt;660000,30,B31&lt;960000,35, 45)/100</f>
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="33" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="92"/>
-      <c r="B33" s="93"/>
-      <c r="C33" s="76" t="s">
+      <c r="A33" s="88"/>
+      <c r="B33" s="89"/>
+      <c r="C33" s="61" t="s">
         <v>49</v>
       </c>
-      <c r="D33" s="76">
+      <c r="D33" s="61">
         <f>D31*F32-D32</f>
-        <v>6420</v>
-      </c>
-      <c r="E33" s="76"/>
-      <c r="F33" s="94"/>
+        <v>13980</v>
+      </c>
+      <c r="E33" s="61"/>
+      <c r="F33" s="73"/>
     </row>
     <row r="34" spans="1:12" ht="24" x14ac:dyDescent="0.3">
-      <c r="A34" s="68" t="s">
+      <c r="A34" s="53" t="s">
         <v>79</v>
       </c>
       <c r="B34" s="10">
         <f>B24</f>
-        <v>246000</v>
+        <v>375000</v>
       </c>
       <c r="C34" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="D34" s="69">
+      <c r="D34" s="54">
         <f>B34/12</f>
-        <v>20500</v>
-      </c>
-      <c r="H34" s="51"/>
-      <c r="I34" s="51"/>
-      <c r="J34" s="51"/>
-      <c r="K34" s="51"/>
-      <c r="L34" s="51"/>
+        <v>31250</v>
+      </c>
+      <c r="H34" s="93"/>
+      <c r="I34" s="93"/>
+      <c r="J34" s="93"/>
+      <c r="K34" s="93"/>
+      <c r="L34" s="93"/>
     </row>
     <row r="35" spans="1:12" ht="24" x14ac:dyDescent="0.3">
-      <c r="A35" s="68" t="s">
+      <c r="A35" s="53" t="s">
         <v>17</v>
       </c>
       <c r="B35" s="10">
         <f>B23-B37-B25</f>
-        <v>190080</v>
+        <v>286230</v>
       </c>
       <c r="C35" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="D35" s="69">
+      <c r="D35" s="54">
         <f>B35/12</f>
-        <v>15840</v>
-      </c>
-      <c r="H35" s="51"/>
-      <c r="I35" s="51"/>
-      <c r="J35" s="51"/>
-      <c r="K35" s="51"/>
-      <c r="L35" s="51"/>
+        <v>23852.5</v>
+      </c>
+      <c r="H35" s="93"/>
+      <c r="I35" s="93"/>
+      <c r="J35" s="93"/>
+      <c r="K35" s="93"/>
+      <c r="L35" s="93"/>
     </row>
     <row r="36" spans="1:12" ht="25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="70" t="s">
+      <c r="A36" s="55" t="s">
         <v>60</v>
       </c>
       <c r="B36" s="12">
         <f>B23+E21*12</f>
-        <v>319915.2</v>
+        <v>477660</v>
       </c>
       <c r="C36" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="D36" s="71">
+      <c r="D36" s="56">
         <f>B36/12</f>
-        <v>26659.600000000002</v>
-      </c>
-      <c r="H36" s="51"/>
-      <c r="I36" s="51"/>
-      <c r="J36" s="51"/>
-      <c r="K36" s="51"/>
-      <c r="L36" s="51"/>
+        <v>39805</v>
+      </c>
+      <c r="H36" s="93"/>
+      <c r="I36" s="93"/>
+      <c r="J36" s="93"/>
+      <c r="K36" s="93"/>
+      <c r="L36" s="93"/>
     </row>
     <row r="37" spans="1:12" ht="24" x14ac:dyDescent="0.3">
-      <c r="A37" s="72" t="s">
+      <c r="A37" s="57" t="s">
         <v>69</v>
       </c>
       <c r="B37" s="8">
         <f>D29+D33</f>
-        <v>7320</v>
+        <v>21270</v>
       </c>
       <c r="C37" s="9"/>
-      <c r="D37" s="73"/>
-      <c r="H37" s="51"/>
-      <c r="I37" s="51"/>
-      <c r="J37" s="51"/>
-      <c r="K37" s="51"/>
-      <c r="L37" s="51"/>
+      <c r="D37" s="58"/>
+      <c r="H37" s="93"/>
+      <c r="I37" s="93"/>
+      <c r="J37" s="93"/>
+      <c r="K37" s="93"/>
+      <c r="L37" s="93"/>
     </row>
     <row r="38" spans="1:12" ht="25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="74" t="s">
+      <c r="A38" s="59" t="s">
         <v>62</v>
       </c>
-      <c r="B38" s="75">
+      <c r="B38" s="60">
         <f>1-B35/B23</f>
-        <v>0.22731707317073169</v>
-      </c>
-      <c r="C38" s="76"/>
-      <c r="D38" s="77"/>
-      <c r="H38" s="51"/>
-      <c r="I38" s="51"/>
-      <c r="J38" s="51"/>
-      <c r="K38" s="51"/>
-      <c r="L38" s="51"/>
+        <v>0.23672000000000004</v>
+      </c>
+      <c r="C38" s="61"/>
+      <c r="D38" s="62"/>
+      <c r="H38" s="93"/>
+      <c r="I38" s="93"/>
+      <c r="J38" s="93"/>
+      <c r="K38" s="93"/>
+      <c r="L38" s="93"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A39" s="54" t="s">
+      <c r="A39" s="43" t="s">
         <v>63</v>
       </c>
-      <c r="B39" s="55" t="s">
+      <c r="B39" s="44" t="s">
         <v>78</v>
       </c>
-      <c r="C39" s="56" t="s">
+      <c r="C39" s="45" t="s">
         <v>68</v>
       </c>
-      <c r="D39" s="57" t="s">
+      <c r="D39" s="46" t="s">
         <v>77</v>
       </c>
-      <c r="H39" s="51"/>
-      <c r="I39" s="51"/>
-      <c r="J39" s="51"/>
-      <c r="K39" s="51"/>
-      <c r="L39" s="51"/>
+      <c r="H39" s="93"/>
+      <c r="I39" s="93"/>
+      <c r="J39" s="93"/>
+      <c r="K39" s="93"/>
+      <c r="L39" s="93"/>
     </row>
     <row r="40" spans="1:12" ht="52" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="58" t="s">
+      <c r="A40" s="47" t="s">
         <v>64</v>
       </c>
-      <c r="B40" s="52">
+      <c r="B40" s="41">
         <f>1-(B35+(D21+E20)*12)/B36</f>
-        <v>0.17290582004231125</v>
-      </c>
-      <c r="C40" s="53">
+        <v>0.18408491395553317</v>
+      </c>
+      <c r="C40" s="42">
         <f>B35+(D21+E20)*12</f>
-        <v>264600</v>
-      </c>
-      <c r="D40" s="59">
+        <v>389730</v>
+      </c>
+      <c r="D40" s="48">
         <f>B37+(E21*12-E20*12)</f>
-        <v>55315.200000000012</v>
-      </c>
-      <c r="H40" s="51"/>
-      <c r="I40" s="51"/>
-      <c r="J40" s="51"/>
-      <c r="K40" s="51"/>
-      <c r="L40" s="51"/>
+        <v>87930</v>
+      </c>
+      <c r="H40" s="93"/>
+      <c r="I40" s="93"/>
+      <c r="J40" s="93"/>
+      <c r="K40" s="93"/>
+      <c r="L40" s="93"/>
     </row>
     <row r="41" spans="1:12" ht="87" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="60" t="s">
+      <c r="A41" s="74" t="s">
         <v>74</v>
       </c>
-      <c r="B41" s="41">
+      <c r="B41" s="76">
         <f>D41/B36</f>
-        <v>0.1961919908775826</v>
-      </c>
-      <c r="C41" s="43">
+        <v>0.21111166938826775</v>
+      </c>
+      <c r="C41" s="78">
         <f>B35+B20+D15*12*F42/F41</f>
-        <v>257150.4</v>
-      </c>
-      <c r="D41" s="61">
+        <v>376820.4</v>
+      </c>
+      <c r="D41" s="80">
         <f>B36-C41</f>
-        <v>62764.800000000017</v>
+        <v>100839.59999999998</v>
       </c>
       <c r="E41" s="4" t="s">
         <v>75</v>
       </c>
       <c r="F41" s="5">
         <f>B6/B12</f>
-        <v>1.3109978150036417</v>
-      </c>
-      <c r="H41" s="51"/>
-      <c r="I41" s="51"/>
-      <c r="J41" s="51"/>
-      <c r="K41" s="51"/>
-      <c r="L41" s="51"/>
+        <v>1.8208302986161691</v>
+      </c>
+      <c r="H41" s="93"/>
+      <c r="I41" s="93"/>
+      <c r="J41" s="93"/>
+      <c r="K41" s="93"/>
+      <c r="L41" s="93"/>
     </row>
     <row r="42" spans="1:12" ht="35" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="62"/>
-      <c r="B42" s="42"/>
-      <c r="C42" s="44"/>
-      <c r="D42" s="63"/>
+      <c r="A42" s="75"/>
+      <c r="B42" s="77"/>
+      <c r="C42" s="79"/>
+      <c r="D42" s="81"/>
       <c r="E42" s="6" t="s">
         <v>76</v>
       </c>
       <c r="F42" s="7">
         <f>(1+F41)/2</f>
-        <v>1.1554989075018209</v>
-      </c>
-      <c r="H42" s="51"/>
-      <c r="I42" s="51"/>
-      <c r="J42" s="51"/>
-      <c r="K42" s="51"/>
-      <c r="L42" s="51"/>
+        <v>1.4104151493080845</v>
+      </c>
+      <c r="H42" s="93"/>
+      <c r="I42" s="93"/>
+      <c r="J42" s="93"/>
+      <c r="K42" s="93"/>
+      <c r="L42" s="93"/>
     </row>
     <row r="43" spans="1:12" ht="51" x14ac:dyDescent="0.2">
-      <c r="A43" s="58" t="s">
+      <c r="A43" s="47" t="s">
         <v>72</v>
       </c>
-      <c r="B43" s="52">
+      <c r="B43" s="41">
         <f>1-(B35+B20)/B36</f>
-        <v>0.24379960689582747</v>
-      </c>
-      <c r="C43" s="53">
+        <v>0.25003140309006411</v>
+      </c>
+      <c r="C43" s="42">
         <f>B35+B20</f>
-        <v>241920</v>
-      </c>
-      <c r="D43" s="59">
+        <v>358230</v>
+      </c>
+      <c r="D43" s="48">
         <f>B37+(E21*12-E20*12+D21*12-D20*12)</f>
-        <v>77995.200000000012</v>
-      </c>
-      <c r="H43" s="51"/>
-      <c r="I43" s="51"/>
-      <c r="J43" s="51"/>
-      <c r="K43" s="51"/>
-      <c r="L43" s="51"/>
+        <v>119430</v>
+      </c>
+      <c r="H43" s="93"/>
+      <c r="I43" s="93"/>
+      <c r="J43" s="93"/>
+      <c r="K43" s="93"/>
+      <c r="L43" s="93"/>
     </row>
     <row r="44" spans="1:12" ht="52" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="64" t="s">
+      <c r="A44" s="49" t="s">
         <v>73</v>
       </c>
-      <c r="B44" s="65">
+      <c r="B44" s="50">
         <f>1-B35/B36</f>
-        <v>0.40584254827529298</v>
-      </c>
-      <c r="C44" s="66">
+        <v>0.40076623539756318</v>
+      </c>
+      <c r="C44" s="51">
         <f>B35</f>
-        <v>190080</v>
-      </c>
-      <c r="D44" s="67">
+        <v>286230</v>
+      </c>
+      <c r="D44" s="52">
         <f>B37+(D21+E21)*12</f>
-        <v>129835.20000000001</v>
-      </c>
-      <c r="H44" s="51"/>
-      <c r="I44" s="51"/>
-      <c r="J44" s="51"/>
-      <c r="K44" s="51"/>
-      <c r="L44" s="51"/>
+        <v>191430</v>
+      </c>
+      <c r="H44" s="93"/>
+      <c r="I44" s="93"/>
+      <c r="J44" s="93"/>
+      <c r="K44" s="93"/>
+      <c r="L44" s="93"/>
     </row>
   </sheetData>
   <mergeCells count="11">

--- a/税收计算器.xlsx
+++ b/税收计算器.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/young/Documents/github/tax-calculator-cn/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{743E7B5C-C751-7440-8C28-0DAF22564D5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F629076C-2EA6-B24A-91F8-A5E73AFB65EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1160" yWindow="760" windowWidth="29080" windowHeight="18880" xr2:uid="{579481C0-C165-FD4E-8674-78238D2D42C7}"/>
   </bookViews>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="84">
   <si>
     <t>税前月薪</t>
   </si>
@@ -306,25 +306,22 @@
   </si>
   <si>
     <t>公积金</t>
+  </si>
+  <si>
+    <t>企业年缴纳五险</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF333333"/>
-      <name val="Helvetica Neue"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -804,171 +801,173 @@
   </borders>
   <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="5"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="5"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="3" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="3" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="4" xfId="7" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="4" xfId="7" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="6" xfId="5" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="7" xfId="5" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="8" xfId="5" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="9" xfId="5" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="10" xfId="5" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="11" xfId="5" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="12" xfId="5" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="13" xfId="5" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="6" xfId="4" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="7" xfId="4" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="8" xfId="4" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="9" xfId="4" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="4"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="10" xfId="4" applyBorder="1"/>
-    <xf numFmtId="9" fontId="6" fillId="5" borderId="1" xfId="4" applyNumberFormat="1"/>
-    <xf numFmtId="9" fontId="6" fillId="5" borderId="10" xfId="4" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="6" fillId="5" borderId="1" xfId="4" applyNumberFormat="1"/>
-    <xf numFmtId="10" fontId="6" fillId="5" borderId="10" xfId="4" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="11" xfId="4" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="12" xfId="4" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="13" xfId="4" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="6" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="6" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="6" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="6" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="6" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="6" applyBorder="1"/>
-    <xf numFmtId="10" fontId="13" fillId="4" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="4" xfId="7" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="4" xfId="7" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="6" xfId="5" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="7" xfId="5" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="8" xfId="5" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="9" xfId="5" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="10" xfId="5" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="11" xfId="5" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="12" xfId="5" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="13" xfId="5" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="4" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="4" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="8" xfId="4" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="9" xfId="4" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="4"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="10" xfId="4" applyBorder="1"/>
+    <xf numFmtId="9" fontId="5" fillId="5" borderId="1" xfId="4" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="5" fillId="5" borderId="10" xfId="4" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="5" fillId="5" borderId="1" xfId="4" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="5" fillId="5" borderId="10" xfId="4" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="11" xfId="4" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="12" xfId="4" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="13" xfId="4" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="6" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="6" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="6" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="6" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="6" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="6" applyBorder="1"/>
+    <xf numFmtId="10" fontId="12" fillId="4" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="14" xfId="8" applyBorder="1"/>
-    <xf numFmtId="10" fontId="11" fillId="4" borderId="15" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="14" xfId="8" applyBorder="1"/>
+    <xf numFmtId="10" fontId="10" fillId="4" borderId="15" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="17" xfId="8" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="17" xfId="8" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="18" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="18" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="19" xfId="8" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="19" xfId="8" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="13" fillId="4" borderId="20" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="12" fillId="4" borderId="20" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="17" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="18" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="24" xfId="7" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="25" xfId="7" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="22" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="23" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="19" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="15" fillId="3" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="20" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="21" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="14" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="3" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="3" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="18" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="17" xfId="7" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="7" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="18" xfId="7" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="21" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="22" xfId="8" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="17" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="18" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="24" xfId="7" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="25" xfId="7" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="22" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="19" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="14" fillId="3" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="20" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="21" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="16" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="17" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="18" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="17" xfId="7" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="7" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="18" xfId="7" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="21" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="23" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="22" xfId="8" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="24" xfId="8" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="24" xfId="8" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="13" fillId="4" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="12" fillId="4" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="13" fillId="4" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="12" fillId="4" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="23" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="23" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="25" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="25" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="6" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="6" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="6" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="6" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="6" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="6" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="17" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="17" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="19" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="19" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="20" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="20" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="6" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="6" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="6" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="6" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="6" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="6" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1296,995 +1295,997 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9656CC3-1EBD-404E-A944-B41B912C7754}">
-  <dimension ref="A1:L44"/>
+  <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" zoomScale="140" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="150" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="35.5" customWidth="1"/>
     <col min="2" max="2" width="14.6640625" customWidth="1"/>
-    <col min="3" max="3" width="21.5" customWidth="1"/>
+    <col min="3" max="3" width="19.1640625" customWidth="1"/>
     <col min="4" max="4" width="13.33203125" customWidth="1"/>
     <col min="5" max="5" width="12.6640625" customWidth="1"/>
-    <col min="7" max="7" width="11" customWidth="1"/>
-    <col min="8" max="8" width="7.1640625" customWidth="1"/>
-    <col min="9" max="9" width="31.33203125" customWidth="1"/>
-    <col min="10" max="10" width="9.5" customWidth="1"/>
-    <col min="11" max="11" width="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.1640625" customWidth="1"/>
+    <col min="8" max="8" width="31.33203125" customWidth="1"/>
+    <col min="9" max="9" width="9.5" customWidth="1"/>
+    <col min="10" max="10" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
+    <row r="1" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="24"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" s="25" t="s">
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="22"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="26">
+      <c r="B2" s="24">
         <v>25000</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="C2" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="26" t="s">
+      <c r="D2" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="27" t="s">
+      <c r="E2" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="82" t="s">
+      <c r="G2" s="84" t="s">
         <v>66</v>
       </c>
-      <c r="I2" s="83"/>
-      <c r="J2" s="83"/>
-      <c r="K2" s="84"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" s="25" t="s">
+      <c r="H2" s="85"/>
+      <c r="I2" s="85"/>
+      <c r="J2" s="86"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="26">
+      <c r="B3" s="24">
         <v>75000</v>
       </c>
-      <c r="C3" s="26" t="s">
+      <c r="C3" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="28">
+      <c r="D3" s="26">
         <v>0.08</v>
       </c>
-      <c r="E3" s="29">
+      <c r="E3" s="27">
         <v>0.15</v>
       </c>
-      <c r="H3" s="35" t="s">
+      <c r="G3" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="I3" s="36" t="s">
+      <c r="H3" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="J3" s="36" t="s">
+      <c r="I3" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="K3" s="37" t="s">
+      <c r="J3" s="35" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" s="25" t="s">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="B4" s="26">
+      <c r="B4" s="24">
         <v>0</v>
       </c>
-      <c r="C4" s="26" t="s">
+      <c r="C4" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="28">
+      <c r="D4" s="26">
         <v>0.02</v>
       </c>
-      <c r="E4" s="29">
+      <c r="E4" s="27">
         <v>0.06</v>
       </c>
-      <c r="H4" s="35">
+      <c r="G4" s="33">
         <v>1</v>
       </c>
-      <c r="I4" s="36" t="s">
+      <c r="H4" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="J4" s="36">
+      <c r="I4" s="34">
         <v>3</v>
       </c>
-      <c r="K4" s="37">
+      <c r="J4" s="35">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" s="25" t="s">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="B5" s="26">
+      <c r="B5" s="24">
         <v>1</v>
       </c>
-      <c r="C5" s="26" t="s">
+      <c r="C5" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="30">
+      <c r="D5" s="28">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="E5" s="31">
+      <c r="E5" s="29">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="H5" s="35">
+      <c r="G5" s="33">
         <v>2</v>
       </c>
-      <c r="I5" s="36" t="s">
+      <c r="H5" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="J5" s="36">
+      <c r="I5" s="34">
         <v>10</v>
       </c>
-      <c r="K5" s="37">
+      <c r="J5" s="35">
         <v>2520</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6" s="25" t="s">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="26">
+      <c r="B6" s="24">
         <f>B2</f>
         <v>25000</v>
       </c>
-      <c r="C6" s="26" t="s">
+      <c r="C6" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="26">
+      <c r="D6" s="24">
         <v>0</v>
       </c>
-      <c r="E6" s="31">
+      <c r="E6" s="29">
         <v>6.9999999999999999E-4</v>
       </c>
-      <c r="H6" s="35">
+      <c r="G6" s="33">
         <v>3</v>
       </c>
-      <c r="I6" s="36" t="s">
+      <c r="H6" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="J6" s="36">
+      <c r="I6" s="34">
         <v>20</v>
       </c>
-      <c r="K6" s="37">
+      <c r="J6" s="35">
         <v>16920</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7" s="25" t="s">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="26">
+      <c r="B7" s="24">
         <f>B2</f>
         <v>25000</v>
       </c>
-      <c r="C7" s="26" t="s">
+      <c r="C7" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="26">
+      <c r="D7" s="24">
         <v>0</v>
       </c>
-      <c r="E7" s="31">
+      <c r="E7" s="29">
         <v>4.4999999999999997E-3</v>
       </c>
-      <c r="H7" s="35">
+      <c r="G7" s="33">
         <v>4</v>
       </c>
-      <c r="I7" s="36" t="s">
+      <c r="H7" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="J7" s="36">
+      <c r="I7" s="34">
         <v>25</v>
       </c>
-      <c r="K7" s="37">
+      <c r="J7" s="35">
         <v>31920</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8" s="25" t="s">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="26">
+      <c r="B8" s="24">
         <f>B2</f>
         <v>25000</v>
       </c>
-      <c r="C8" s="26" t="s">
+      <c r="C8" s="24" t="s">
         <v>82</v>
       </c>
-      <c r="D8" s="28">
+      <c r="D8" s="26">
         <v>0.12</v>
       </c>
-      <c r="E8" s="29">
+      <c r="E8" s="27">
         <v>0.12</v>
       </c>
-      <c r="H8" s="35">
+      <c r="G8" s="33">
         <v>5</v>
       </c>
-      <c r="I8" s="36" t="s">
+      <c r="H8" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="J8" s="36">
+      <c r="I8" s="34">
         <v>30</v>
       </c>
-      <c r="K8" s="37">
+      <c r="J8" s="35">
         <v>52920</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" s="25" t="s">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="26">
+      <c r="B9" s="24">
         <f>B2</f>
         <v>25000</v>
       </c>
-      <c r="C9" s="26"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="27"/>
-      <c r="H9" s="35">
+      <c r="C9" s="24"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="25"/>
+      <c r="G9" s="33">
         <v>6</v>
       </c>
-      <c r="I9" s="36" t="s">
+      <c r="H9" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="J9" s="36">
+      <c r="I9" s="34">
         <v>35</v>
       </c>
-      <c r="K9" s="37">
+      <c r="J9" s="35">
         <v>85920</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" s="25" t="s">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="B10" s="26">
+      <c r="B10" s="24">
         <v>60000</v>
       </c>
-      <c r="C10" s="26"/>
-      <c r="D10" s="26"/>
-      <c r="E10" s="27"/>
-      <c r="H10" s="35">
+      <c r="C10" s="24"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="25"/>
+      <c r="G10" s="33">
         <v>7</v>
       </c>
-      <c r="I10" s="36" t="s">
+      <c r="H10" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="J10" s="36">
+      <c r="I10" s="34">
         <v>45</v>
       </c>
-      <c r="K10" s="37">
+      <c r="J10" s="35">
         <v>181920</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11" s="25" t="s">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="B11" s="26">
+      <c r="B11" s="24">
         <v>1500</v>
       </c>
-      <c r="C11" s="26"/>
-      <c r="D11" s="26"/>
-      <c r="E11" s="27"/>
-      <c r="H11" s="35"/>
-      <c r="I11" s="36"/>
-      <c r="J11" s="36"/>
-      <c r="K11" s="37"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A12" s="25" t="s">
+      <c r="C11" s="24"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="25"/>
+      <c r="G11" s="33"/>
+      <c r="H11" s="34"/>
+      <c r="I11" s="34"/>
+      <c r="J11" s="35"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="B12" s="26">
+      <c r="B12" s="24">
         <v>13730</v>
       </c>
-      <c r="C12" s="26"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="27"/>
-      <c r="H12" s="35"/>
-      <c r="I12" s="36"/>
-      <c r="J12" s="36"/>
-      <c r="K12" s="37"/>
-    </row>
-    <row r="13" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="32"/>
-      <c r="B13" s="33"/>
-      <c r="C13" s="33"/>
-      <c r="D13" s="33"/>
-      <c r="E13" s="34"/>
-      <c r="H13" s="35"/>
-      <c r="I13" s="36"/>
-      <c r="J13" s="36"/>
-      <c r="K13" s="37"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A14" s="14" t="s">
+      <c r="C12" s="24"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="25"/>
+      <c r="G12" s="33"/>
+      <c r="H12" s="34"/>
+      <c r="I12" s="34"/>
+      <c r="J12" s="35"/>
+    </row>
+    <row r="13" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="30"/>
+      <c r="B13" s="31"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="32"/>
+      <c r="G13" s="33"/>
+      <c r="H13" s="34"/>
+      <c r="I13" s="34"/>
+      <c r="J13" s="35"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="15" t="s">
+      <c r="B14" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="15" t="s">
+      <c r="C14" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="D14" s="15" t="s">
+      <c r="D14" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="E14" s="16" t="s">
+      <c r="E14" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="H14" s="90" t="s">
+      <c r="G14" s="92" t="s">
         <v>65</v>
       </c>
-      <c r="I14" s="91"/>
-      <c r="J14" s="91"/>
-      <c r="K14" s="92"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A15" s="17" t="s">
+      <c r="H14" s="93"/>
+      <c r="I14" s="93"/>
+      <c r="J14" s="94"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B15" s="74">
         <f>D15*12</f>
         <v>24000</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="74">
         <f>$B$6*D3</f>
         <v>2000</v>
       </c>
-      <c r="E15" s="18">
+      <c r="E15" s="73">
         <f>$B$8*E3</f>
         <v>3750</v>
       </c>
-      <c r="H15" s="35" t="s">
+      <c r="G15" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="I15" s="36" t="s">
+      <c r="H15" s="34" t="s">
         <v>51</v>
       </c>
-      <c r="J15" s="36" t="s">
+      <c r="I15" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="K15" s="37" t="s">
+      <c r="J15" s="35" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A16" s="17" t="s">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="3">
+      <c r="B16" s="74">
         <f t="shared" ref="B16:B18" si="0">D16*12</f>
         <v>6000</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D16" s="74">
         <f>$B$6*D4</f>
         <v>500</v>
       </c>
-      <c r="E16" s="18">
+      <c r="E16" s="73">
         <f t="shared" ref="E16:E19" si="1">$B$8*E4</f>
         <v>1500</v>
       </c>
-      <c r="H16" s="35">
+      <c r="G16" s="33">
         <v>1</v>
       </c>
-      <c r="I16" s="36" t="s">
+      <c r="H16" s="34" t="s">
         <v>52</v>
       </c>
-      <c r="J16" s="36">
+      <c r="I16" s="34">
         <v>3</v>
       </c>
-      <c r="K16" s="37">
+      <c r="J16" s="35">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A17" s="17" t="s">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B17" s="3">
+      <c r="B17" s="2">
         <f t="shared" si="0"/>
         <v>1500</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="74">
         <f>$B$6*D5</f>
         <v>125</v>
       </c>
-      <c r="E17" s="18">
+      <c r="E17" s="73">
         <f t="shared" si="1"/>
         <v>175</v>
       </c>
-      <c r="H17" s="35">
+      <c r="G17" s="33">
         <v>2</v>
       </c>
-      <c r="I17" s="36" t="s">
+      <c r="H17" s="34" t="s">
         <v>53</v>
       </c>
-      <c r="J17" s="36">
+      <c r="I17" s="34">
         <v>10</v>
       </c>
-      <c r="K17" s="37">
+      <c r="J17" s="35">
         <v>210</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A18" s="17" t="s">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B18" s="3">
+      <c r="B18" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="74">
         <f>$B$6*D6</f>
         <v>0</v>
       </c>
-      <c r="E18" s="18">
+      <c r="E18" s="73">
         <f t="shared" si="1"/>
         <v>17.5</v>
       </c>
-      <c r="H18" s="35">
+      <c r="G18" s="33">
         <v>3</v>
       </c>
-      <c r="I18" s="36" t="s">
+      <c r="H18" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="J18" s="36">
+      <c r="I18" s="34">
         <v>20</v>
       </c>
-      <c r="K18" s="37">
+      <c r="J18" s="35">
         <v>1410</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A19" s="17" t="s">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B19" s="3">
+      <c r="B19" s="2">
         <f>D19*12</f>
         <v>0</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D19" s="3">
+      <c r="D19" s="74">
         <f>$B$6*D7</f>
         <v>0</v>
       </c>
-      <c r="E19" s="18">
+      <c r="E19" s="73">
         <f t="shared" si="1"/>
         <v>112.49999999999999</v>
       </c>
-      <c r="H19" s="35">
+      <c r="G19" s="33">
         <v>4</v>
       </c>
-      <c r="I19" s="36" t="s">
+      <c r="H19" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="J19" s="36">
+      <c r="I19" s="34">
         <v>25</v>
       </c>
-      <c r="K19" s="37">
+      <c r="J19" s="35">
         <v>2660</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A20" s="17" t="s">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="B20" s="3">
+      <c r="B20" s="74">
         <f>(D20+E20)*12</f>
         <v>72000</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="74">
         <f>B8*D8</f>
         <v>3000</v>
       </c>
-      <c r="E20" s="18">
+      <c r="E20" s="75">
         <f>B9*E8</f>
         <v>3000</v>
       </c>
-      <c r="H20" s="35">
+      <c r="G20" s="33">
         <v>5</v>
       </c>
-      <c r="I20" s="36" t="s">
+      <c r="H20" s="34" t="s">
         <v>56</v>
       </c>
-      <c r="J20" s="36">
+      <c r="I20" s="34">
         <v>30</v>
       </c>
-      <c r="K20" s="37">
+      <c r="J20" s="35">
         <v>4410</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A21" s="17"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3" t="s">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21" s="15"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="74">
         <f>SUM(D15:D20)</f>
         <v>5625</v>
       </c>
-      <c r="E21" s="18">
+      <c r="E21" s="75">
         <f>SUM(E15:E20)</f>
         <v>8555</v>
       </c>
-      <c r="H21" s="35">
+      <c r="G21" s="33">
         <v>6</v>
       </c>
-      <c r="I21" s="36" t="s">
+      <c r="H21" s="34" t="s">
         <v>57</v>
       </c>
-      <c r="J21" s="36">
+      <c r="I21" s="34">
         <v>35</v>
       </c>
-      <c r="K21" s="37">
+      <c r="J21" s="35">
         <v>7160</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="19"/>
-      <c r="B22" s="20"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="21"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="38">
+    <row r="22" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="17"/>
+      <c r="B22" s="18"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="19"/>
+      <c r="G22" s="36">
         <v>7</v>
       </c>
-      <c r="I22" s="39" t="s">
+      <c r="H22" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="J22" s="39">
+      <c r="I22" s="37">
         <v>45</v>
       </c>
-      <c r="K22" s="40">
+      <c r="J22" s="38">
         <v>15160</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A23" s="2" t="s">
+    <row r="23" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B23" s="2">
+      <c r="B23" s="1">
         <f>B2*12+B3+B4</f>
         <v>375000</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
+      <c r="C23" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B24" s="2">
+      <c r="D23" s="1">
         <f>B23+B4*0.8</f>
         <v>375000</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A25" s="63" t="s">
+      <c r="E23" s="1"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24" s="60" t="s">
         <v>41</v>
       </c>
-      <c r="B25" s="64">
+      <c r="B24" s="61">
         <f>(SUM(D15:D20)*12)</f>
         <v>67500</v>
       </c>
-      <c r="C25" s="64" t="s">
+      <c r="C24" s="61" t="s">
         <v>44</v>
       </c>
-      <c r="D25" s="64">
+      <c r="D24" s="61">
         <f>B11*12</f>
         <v>18000</v>
       </c>
-      <c r="E25" s="64" t="s">
+      <c r="E24" s="61" t="s">
         <v>50</v>
       </c>
-      <c r="F25" s="65">
-        <f>B10+D25+B25</f>
+      <c r="F24" s="62">
+        <f>B10+D24+B24</f>
         <v>145500</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A26" s="66" t="s">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A25" s="63" t="s">
         <v>34</v>
       </c>
-      <c r="B26" s="67">
-        <f>MAX(0,B24-F25)</f>
+      <c r="B25" s="64">
+        <f>MAX(0,D23-F24)</f>
         <v>229500</v>
       </c>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="18"/>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A27" s="85" t="s">
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="16"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A26" s="87" t="s">
         <v>47</v>
       </c>
-      <c r="B27" s="86">
+      <c r="B26" s="88">
         <f>IF(B5=1,B3,0)</f>
         <v>75000</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="C26" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D26" s="2">
         <f>IF(B5=1,B3,0)/12</f>
         <v>6250</v>
       </c>
-      <c r="E27" s="3" t="s">
+      <c r="E26" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="F27" s="18" cm="1">
-        <f t="array" ref="F27">_xlfn.SWITCH(TRUE(), D27&lt;3000,1, D27&lt;12000,2,D27&lt;25000,3,D27&lt;35000,4,D27&lt;55000,5,D27&lt;80000,6, 7)</f>
+      <c r="F26" s="16" cm="1">
+        <f t="array" ref="F26">_xlfn.SWITCH(TRUE(), D26&lt;3000,1, D26&lt;12000,2,D26&lt;25000,3,D26&lt;35000,4,D26&lt;55000,5,D26&lt;80000,6, 7)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A28" s="85"/>
-      <c r="B28" s="86"/>
-      <c r="C28" s="3" t="s">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A27" s="87"/>
+      <c r="B27" s="88"/>
+      <c r="C27" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D28" s="3" cm="1">
-        <f t="array" ref="D28">_xlfn.SWITCH(TRUE(), D27&lt;3000,0, D27&lt;12000,210,D27&lt;25000,1410,D27&lt;35000,2660,D27&lt;55000,4410,D27&lt;80000,7160, 15160)</f>
+      <c r="D27" s="2" cm="1">
+        <f t="array" ref="D27">_xlfn.SWITCH(TRUE(), D26&lt;3000,0, D26&lt;12000,210,D26&lt;25000,1410,D26&lt;35000,2660,D26&lt;55000,4410,D26&lt;80000,7160, 15160)</f>
         <v>210</v>
       </c>
-      <c r="E28" s="3" t="s">
+      <c r="E27" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="F28" s="18" cm="1">
-        <f t="array" ref="F28">_xlfn.SWITCH(TRUE(), D27&lt;3000,3, D27&lt;12000,10,D27&lt;25000,20,D27&lt;35000,25,D27&lt;55000,30,D27&lt;85000,35, 45)/100</f>
+      <c r="F27" s="16" cm="1">
+        <f t="array" ref="F27">_xlfn.SWITCH(TRUE(), D26&lt;3000,3, D26&lt;12000,10,D26&lt;25000,20,D26&lt;35000,25,D26&lt;55000,30,D26&lt;85000,35, 45)/100</f>
         <v>0.1</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A29" s="85"/>
-      <c r="B29" s="86"/>
-      <c r="C29" s="68" t="s">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A28" s="87"/>
+      <c r="B28" s="88"/>
+      <c r="C28" s="65" t="s">
         <v>45</v>
       </c>
-      <c r="D29" s="68">
-        <f>B27*F28-D28</f>
+      <c r="D28" s="65">
+        <f>B26*F27-D27</f>
         <v>7290</v>
       </c>
+      <c r="E28" s="65"/>
+      <c r="F28" s="66"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A29" s="67"/>
+      <c r="B29" s="68"/>
+      <c r="C29" s="68"/>
+      <c r="D29" s="68"/>
       <c r="E29" s="68"/>
       <c r="F29" s="69"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A30" s="70"/>
-      <c r="B30" s="71"/>
-      <c r="C30" s="71"/>
-      <c r="D30" s="71"/>
-      <c r="E30" s="71"/>
-      <c r="F30" s="72"/>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A31" s="87" t="s">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A30" s="89" t="s">
         <v>46</v>
       </c>
-      <c r="B31" s="86">
-        <f>B26-B27</f>
+      <c r="B30" s="88">
+        <f>B25-B26</f>
         <v>154500</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="C30" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D31" s="3">
-        <f>B31</f>
+      <c r="D30" s="2">
+        <f>B30</f>
         <v>154500</v>
       </c>
-      <c r="E31" s="3" t="s">
+      <c r="E30" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="F31" s="18" cm="1">
-        <f t="array" ref="F31">_xlfn.SWITCH(TRUE(), B31&lt;36000,1, B31&lt;144000,2,B31&lt;300000,3,B31&lt;420000,4,B31&lt;660000,5,B31&lt;960000,6, 7)</f>
+      <c r="F30" s="16" cm="1">
+        <f t="array" ref="F30">_xlfn.SWITCH(TRUE(), B30&lt;36000,1, B30&lt;144000,2,B30&lt;300000,3,B30&lt;420000,4,B30&lt;660000,5,B30&lt;960000,6, 7)</f>
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A32" s="87"/>
-      <c r="B32" s="86"/>
-      <c r="C32" s="3" t="s">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A31" s="89"/>
+      <c r="B31" s="88"/>
+      <c r="C31" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D32" s="3" cm="1">
-        <f t="array" ref="D32">_xlfn.SWITCH(TRUE(), B31&lt;36000,0, B31&lt;144000,2520,B31&lt;300000,16920,B31&lt;420000,31920,B31&lt;660000,52920,B31&lt;960000,85920, 181920)</f>
+      <c r="D31" s="2" cm="1">
+        <f t="array" ref="D31">_xlfn.SWITCH(TRUE(), B30&lt;36000,0, B30&lt;144000,2520,B30&lt;300000,16920,B30&lt;420000,31920,B30&lt;660000,52920,B30&lt;960000,85920, 181920)</f>
         <v>16920</v>
       </c>
-      <c r="E32" s="3" t="s">
+      <c r="E31" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="F32" s="18" cm="1">
-        <f t="array" ref="F32">_xlfn.SWITCH(TRUE(), B31&lt;36000,3, B31&lt;144000,10,B31&lt;300000,20,B31&lt;420000,25,B31&lt;660000,30,B31&lt;960000,35, 45)/100</f>
+      <c r="F31" s="16" cm="1">
+        <f t="array" ref="F31">_xlfn.SWITCH(TRUE(), B30&lt;36000,3, B30&lt;144000,10,B30&lt;300000,20,B30&lt;420000,25,B30&lt;660000,30,B30&lt;960000,35, 45)/100</f>
         <v>0.2</v>
       </c>
     </row>
-    <row r="33" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="88"/>
-      <c r="B33" s="89"/>
-      <c r="C33" s="61" t="s">
+    <row r="32" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="90"/>
+      <c r="B32" s="91"/>
+      <c r="C32" s="58" t="s">
         <v>49</v>
       </c>
-      <c r="D33" s="61">
-        <f>D31*F32-D32</f>
+      <c r="D32" s="58">
+        <f>D30*F31-D31</f>
         <v>13980</v>
       </c>
-      <c r="E33" s="61"/>
-      <c r="F33" s="73"/>
-    </row>
-    <row r="34" spans="1:12" ht="24" x14ac:dyDescent="0.3">
-      <c r="A34" s="53" t="s">
+      <c r="E32" s="58"/>
+      <c r="F32" s="70"/>
+    </row>
+    <row r="33" spans="1:11" ht="24" x14ac:dyDescent="0.3">
+      <c r="A33" s="51" t="s">
         <v>79</v>
       </c>
-      <c r="B34" s="10">
-        <f>B24</f>
+      <c r="B33" s="8">
+        <f>D23</f>
         <v>375000</v>
       </c>
-      <c r="C34" s="11" t="s">
+      <c r="C33" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="D34" s="54">
+      <c r="D33" s="52">
+        <f>B33/12</f>
+        <v>31250</v>
+      </c>
+      <c r="G33" s="95"/>
+      <c r="H33" s="95"/>
+      <c r="I33" s="95"/>
+      <c r="J33" s="95"/>
+      <c r="K33" s="95"/>
+    </row>
+    <row r="34" spans="1:11" ht="24" x14ac:dyDescent="0.3">
+      <c r="A34" s="51" t="s">
+        <v>17</v>
+      </c>
+      <c r="B34" s="8">
+        <f>B23-B36-B24</f>
+        <v>286230</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="D34" s="52">
         <f>B34/12</f>
-        <v>31250</v>
-      </c>
-      <c r="H34" s="93"/>
-      <c r="I34" s="93"/>
-      <c r="J34" s="93"/>
-      <c r="K34" s="93"/>
-      <c r="L34" s="93"/>
-    </row>
-    <row r="35" spans="1:12" ht="24" x14ac:dyDescent="0.3">
+        <v>23852.5</v>
+      </c>
+      <c r="G34" s="95"/>
+      <c r="H34" s="95"/>
+      <c r="I34" s="95"/>
+      <c r="J34" s="95"/>
+      <c r="K34" s="95"/>
+    </row>
+    <row r="35" spans="1:11" ht="25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="53" t="s">
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="B35" s="10">
-        <f>B23-B37-B25</f>
-        <v>286230</v>
+        <f>B23+E21*12</f>
+        <v>477660</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D35" s="54">
         <f>B35/12</f>
-        <v>23852.5</v>
-      </c>
-      <c r="H35" s="93"/>
-      <c r="I35" s="93"/>
-      <c r="J35" s="93"/>
-      <c r="K35" s="93"/>
-      <c r="L35" s="93"/>
-    </row>
-    <row r="36" spans="1:12" ht="25" thickBot="1" x14ac:dyDescent="0.35">
+        <v>39805</v>
+      </c>
+      <c r="G35" s="95"/>
+      <c r="H35" s="95"/>
+      <c r="I35" s="95"/>
+      <c r="J35" s="95"/>
+      <c r="K35" s="95"/>
+    </row>
+    <row r="36" spans="1:11" ht="24" x14ac:dyDescent="0.3">
       <c r="A36" s="55" t="s">
-        <v>60</v>
-      </c>
-      <c r="B36" s="12">
-        <f>B23+E21*12</f>
-        <v>477660</v>
-      </c>
-      <c r="C36" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="D36" s="56">
-        <f>B36/12</f>
-        <v>39805</v>
-      </c>
-      <c r="H36" s="93"/>
-      <c r="I36" s="93"/>
-      <c r="J36" s="93"/>
-      <c r="K36" s="93"/>
-      <c r="L36" s="93"/>
-    </row>
-    <row r="37" spans="1:12" ht="24" x14ac:dyDescent="0.3">
-      <c r="A37" s="57" t="s">
         <v>69</v>
       </c>
-      <c r="B37" s="8">
-        <f>D29+D33</f>
+      <c r="B36" s="7">
+        <f>D28+D32</f>
         <v>21270</v>
       </c>
-      <c r="C37" s="9"/>
-      <c r="D37" s="58"/>
-      <c r="H37" s="93"/>
-      <c r="I37" s="93"/>
-      <c r="J37" s="93"/>
-      <c r="K37" s="93"/>
-      <c r="L37" s="93"/>
-    </row>
-    <row r="38" spans="1:12" ht="25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="59" t="s">
+      <c r="C36" s="71" t="s">
+        <v>83</v>
+      </c>
+      <c r="D36" s="72">
+        <f>SUM(E15:E19)*12</f>
+        <v>66660</v>
+      </c>
+      <c r="G36" s="95"/>
+      <c r="H36" s="95"/>
+      <c r="I36" s="95"/>
+      <c r="J36" s="95"/>
+      <c r="K36" s="95"/>
+    </row>
+    <row r="37" spans="1:11" ht="25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="56" t="s">
         <v>62</v>
       </c>
-      <c r="B38" s="60">
-        <f>1-B35/B23</f>
+      <c r="B37" s="57">
+        <f>1-B34/B23</f>
         <v>0.23672000000000004</v>
       </c>
-      <c r="C38" s="61"/>
-      <c r="D38" s="62"/>
-      <c r="H38" s="93"/>
-      <c r="I38" s="93"/>
-      <c r="J38" s="93"/>
-      <c r="K38" s="93"/>
-      <c r="L38" s="93"/>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A39" s="43" t="s">
+      <c r="C37" s="58"/>
+      <c r="D37" s="59"/>
+      <c r="G37" s="95"/>
+      <c r="H37" s="95"/>
+      <c r="I37" s="95"/>
+      <c r="J37" s="95"/>
+      <c r="K37" s="95"/>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A38" s="41" t="s">
         <v>63</v>
       </c>
-      <c r="B39" s="44" t="s">
+      <c r="B38" s="42" t="s">
         <v>78</v>
       </c>
-      <c r="C39" s="45" t="s">
+      <c r="C38" s="43" t="s">
         <v>68</v>
       </c>
-      <c r="D39" s="46" t="s">
+      <c r="D38" s="44" t="s">
         <v>77</v>
       </c>
-      <c r="H39" s="93"/>
-      <c r="I39" s="93"/>
-      <c r="J39" s="93"/>
-      <c r="K39" s="93"/>
-      <c r="L39" s="93"/>
-    </row>
-    <row r="40" spans="1:12" ht="52" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="47" t="s">
+      <c r="G38" s="95"/>
+      <c r="H38" s="95"/>
+      <c r="I38" s="95"/>
+      <c r="J38" s="95"/>
+      <c r="K38" s="95"/>
+    </row>
+    <row r="39" spans="1:11" ht="52" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="45" t="s">
         <v>64</v>
       </c>
-      <c r="B40" s="41">
-        <f>1-(B35+(D21+E20)*12)/B36</f>
+      <c r="B39" s="39">
+        <f>1-(B34+(D21+E20)*12)/B35</f>
         <v>0.18408491395553317</v>
       </c>
-      <c r="C40" s="42">
-        <f>B35+(D21+E20)*12</f>
+      <c r="C39" s="40">
+        <f>B34+(D21+E20)*12</f>
         <v>389730</v>
       </c>
-      <c r="D40" s="48">
-        <f>B37+(E21*12-E20*12)</f>
+      <c r="D39" s="46">
+        <f>B36+(E21*12-E20*12)</f>
         <v>87930</v>
       </c>
-      <c r="H40" s="93"/>
-      <c r="I40" s="93"/>
-      <c r="J40" s="93"/>
-      <c r="K40" s="93"/>
-      <c r="L40" s="93"/>
-    </row>
-    <row r="41" spans="1:12" ht="87" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="74" t="s">
+      <c r="G39" s="95"/>
+      <c r="H39" s="95"/>
+      <c r="I39" s="95"/>
+      <c r="J39" s="95"/>
+      <c r="K39" s="95"/>
+    </row>
+    <row r="40" spans="1:11" ht="87" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="76" t="s">
         <v>74</v>
       </c>
-      <c r="B41" s="76">
-        <f>D41/B36</f>
+      <c r="B40" s="78">
+        <f>D40/B35</f>
         <v>0.21111166938826775</v>
       </c>
-      <c r="C41" s="78">
-        <f>B35+B20+D15*12*F42/F41</f>
+      <c r="C40" s="80">
+        <f>B34+B20+D15*12*F41/F40</f>
         <v>376820.4</v>
       </c>
-      <c r="D41" s="80">
-        <f>B36-C41</f>
+      <c r="D40" s="82">
+        <f>B35-C40</f>
         <v>100839.59999999998</v>
       </c>
-      <c r="E41" s="4" t="s">
+      <c r="E40" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="F41" s="5">
+      <c r="F40" s="4">
         <f>B6/B12</f>
         <v>1.8208302986161691</v>
       </c>
-      <c r="H41" s="93"/>
-      <c r="I41" s="93"/>
-      <c r="J41" s="93"/>
-      <c r="K41" s="93"/>
-      <c r="L41" s="93"/>
-    </row>
-    <row r="42" spans="1:12" ht="35" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="75"/>
-      <c r="B42" s="77"/>
-      <c r="C42" s="79"/>
-      <c r="D42" s="81"/>
-      <c r="E42" s="6" t="s">
+      <c r="G40" s="95"/>
+      <c r="H40" s="95"/>
+      <c r="I40" s="95"/>
+      <c r="J40" s="95"/>
+      <c r="K40" s="95"/>
+    </row>
+    <row r="41" spans="1:11" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="77"/>
+      <c r="B41" s="79"/>
+      <c r="C41" s="81"/>
+      <c r="D41" s="83"/>
+      <c r="E41" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="F42" s="7">
-        <f>(1+F41)/2</f>
+      <c r="F41" s="6">
+        <f>(1+F40)/2</f>
         <v>1.4104151493080845</v>
       </c>
-      <c r="H42" s="93"/>
-      <c r="I42" s="93"/>
-      <c r="J42" s="93"/>
-      <c r="K42" s="93"/>
-      <c r="L42" s="93"/>
-    </row>
-    <row r="43" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+      <c r="G41" s="95"/>
+      <c r="H41" s="95"/>
+      <c r="I41" s="95"/>
+      <c r="J41" s="95"/>
+      <c r="K41" s="95"/>
+    </row>
+    <row r="42" spans="1:11" ht="51" x14ac:dyDescent="0.2">
+      <c r="A42" s="45" t="s">
+        <v>72</v>
+      </c>
+      <c r="B42" s="39">
+        <f>1-(B34+B20)/B35</f>
+        <v>0.25003140309006411</v>
+      </c>
+      <c r="C42" s="40">
+        <f>B34+B20</f>
+        <v>358230</v>
+      </c>
+      <c r="D42" s="46">
+        <f>B36+(E21*12-E20*12+D21*12-D20*12)</f>
+        <v>119430</v>
+      </c>
+      <c r="G42" s="95"/>
+      <c r="H42" s="95"/>
+      <c r="I42" s="95"/>
+      <c r="J42" s="95"/>
+      <c r="K42" s="95"/>
+    </row>
+    <row r="43" spans="1:11" ht="52" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A43" s="47" t="s">
-        <v>72</v>
-      </c>
-      <c r="B43" s="41">
-        <f>1-(B35+B20)/B36</f>
-        <v>0.25003140309006411</v>
-      </c>
-      <c r="C43" s="42">
-        <f>B35+B20</f>
-        <v>358230</v>
-      </c>
-      <c r="D43" s="48">
-        <f>B37+(E21*12-E20*12+D21*12-D20*12)</f>
-        <v>119430</v>
-      </c>
-      <c r="H43" s="93"/>
-      <c r="I43" s="93"/>
-      <c r="J43" s="93"/>
-      <c r="K43" s="93"/>
-      <c r="L43" s="93"/>
-    </row>
-    <row r="44" spans="1:12" ht="52" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="49" t="s">
         <v>73</v>
       </c>
-      <c r="B44" s="50">
-        <f>1-B35/B36</f>
+      <c r="B43" s="48">
+        <f>1-B34/B35</f>
         <v>0.40076623539756318</v>
       </c>
-      <c r="C44" s="51">
-        <f>B35</f>
+      <c r="C43" s="49">
+        <f>B34</f>
         <v>286230</v>
       </c>
-      <c r="D44" s="52">
-        <f>B37+(D21+E21)*12</f>
+      <c r="D43" s="50">
+        <f>B36+(D21+E21)*12</f>
         <v>191430</v>
       </c>
-      <c r="H44" s="93"/>
-      <c r="I44" s="93"/>
-      <c r="J44" s="93"/>
-      <c r="K44" s="93"/>
-      <c r="L44" s="93"/>
+      <c r="G43" s="95"/>
+      <c r="H43" s="95"/>
+      <c r="I43" s="95"/>
+      <c r="J43" s="95"/>
+      <c r="K43" s="95"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="H2:K2"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="A31:A33"/>
-    <mergeCell ref="B31:B33"/>
-    <mergeCell ref="H14:K14"/>
-    <mergeCell ref="H34:L44"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="A26:A28"/>
+    <mergeCell ref="B26:B28"/>
+    <mergeCell ref="A30:A32"/>
+    <mergeCell ref="B30:B32"/>
+    <mergeCell ref="G14:J14"/>
+    <mergeCell ref="G33:K43"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
